--- a/K최근접이웃.xlsx
+++ b/K최근접이웃.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kim2\recommand_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F2B55-63D8-42E8-96F4-90B52F915480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D862C0FB-BC45-458D-8030-DC214BB03C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-nearest-neighbore" sheetId="1" r:id="rId1"/>
@@ -1282,15 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1324,21 +1315,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1369,8 +1345,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4611,7 +4611,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>&gt;</a:t>
+            <a:t>&lt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -4678,7 +4678,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>&lt;=</a:t>
+            <a:t>&gt;=</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -5296,11 +5296,11 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5309,9 +5309,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5320,9 +5320,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5331,9 +5331,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5342,9 +5342,9 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5353,9 +5353,9 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5365,194 +5365,196 @@
     </row>
     <row r="15" spans="2:11" ht="17.25" thickTop="1"/>
     <row r="17" spans="2:14" ht="20.25">
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="2:14" ht="20.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>0.97265199999999996</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="17">
         <v>0.96348699999999998</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>0.87271500000000002</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <v>0.70575900000000003</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>0.97265199999999996</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>0.96553500000000003</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>0.90812099999999996</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <v>0.69850100000000004</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="2:14" ht="17.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <v>0.96348699999999998</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>0.96553500000000003</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <v>1</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>0.92635400000000001</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <v>0.70808800000000005</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>0.87271500000000002</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>0.90812099999999996</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="17">
         <v>0.92635400000000001</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>1</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>0.69519299999999995</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>0.70575900000000003</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>0.69850100000000004</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <v>0.70808800000000005</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <v>0.69519299999999995</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="2:14" ht="17.25">
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="I25:N25"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="I17:M17"/>
@@ -5560,8 +5562,6 @@
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="I22:N22"/>
     <mergeCell ref="I23:N23"/>
-    <mergeCell ref="B9:D14"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5574,62 +5574,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442C138-D5CD-4A75-916A-F348FC48AEF5}">
   <dimension ref="B13:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="13" spans="16:18">
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="16:18">
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="16:18">
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="16:18">
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="2:18" ht="32.1" customHeight="1">
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B22" s="35"/>
-      <c r="L22" s="37"/>
+      <c r="B22" s="27"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="13" t="s">
         <v>40</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="27" t="s">
         <v>35</v>
       </c>
       <c r="L23" s="11" t="s">
@@ -5668,18 +5668,18 @@
       <c r="P23" s="6">
         <v>4</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="34">
         <v>3</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="30" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="6">
@@ -5702,8 +5702,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B25" s="35"/>
-      <c r="L25" s="39" t="s">
+      <c r="B25" s="27"/>
+      <c r="L25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="M25" s="6">
@@ -5726,10 +5726,10 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="32" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="6">
@@ -5752,10 +5752,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="33" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="9">
@@ -5791,393 +5791,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="J2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="17.25">
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="N27" s="28" t="s">
+      <c r="N27" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="N31" s="28" t="s">
+      <c r="N31" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="3:22">
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="3:22">
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:22">
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="3:22">
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="3:22">
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="3:22">
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6213,6 +6213,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>